--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Agtr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Agtr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,51 +543,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H2">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I2">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J2">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1409635</v>
+        <v>0.9663516666666667</v>
       </c>
       <c r="N2">
-        <v>0.281927</v>
+        <v>2.899055</v>
       </c>
       <c r="O2">
-        <v>0.127302058387171</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.0886289202516707</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>27.49905223629474</v>
+        <v>175.3874231783042</v>
       </c>
       <c r="R2">
-        <v>109.996208945179</v>
+        <v>1052.324539069825</v>
       </c>
       <c r="S2">
-        <v>0.03361545184650733</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="T2">
-        <v>0.0175689663729107</v>
+        <v>0.1654349085470023</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.0792385</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H3">
-        <v>390.1584769999999</v>
+        <v>187.223767</v>
       </c>
       <c r="I3">
-        <v>0.2640605522989326</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J3">
-        <v>0.1982306263353075</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,27 +629,27 @@
         <v>2.899055</v>
       </c>
       <c r="O3">
-        <v>0.872697941612829</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.9113710797483293</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>188.5151472565392</v>
+        <v>60.30799976002056</v>
       </c>
       <c r="R3">
-        <v>1131.090883539235</v>
+        <v>542.771997840185</v>
       </c>
       <c r="S3">
-        <v>0.2304451004524252</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="T3">
-        <v>0.1806616599623968</v>
+        <v>0.08532865336765341</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,51 +667,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>62.40792233333334</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H4">
-        <v>187.223767</v>
+        <v>515.994095</v>
       </c>
       <c r="I4">
-        <v>0.08447577797556809</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J4">
-        <v>0.09512412720758515</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1409635</v>
+        <v>0.9663516666666667</v>
       </c>
       <c r="N4">
-        <v>0.281927</v>
+        <v>2.899055</v>
       </c>
       <c r="O4">
-        <v>0.127302058387171</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.0886289202516707</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>8.797239159834833</v>
+        <v>166.2105845644695</v>
       </c>
       <c r="R4">
-        <v>52.783434959009</v>
+        <v>1495.895261080225</v>
       </c>
       <c r="S4">
-        <v>0.01075394042014746</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="T4">
-        <v>0.008430748684290843</v>
+        <v>0.235168226649403</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,22 +723,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.40792233333334</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H5">
-        <v>187.223767</v>
+        <v>111.285591</v>
       </c>
       <c r="I5">
-        <v>0.08447577797556809</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J5">
-        <v>0.09512412720758515</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -753,27 +753,27 @@
         <v>2.899055</v>
       </c>
       <c r="O5">
-        <v>0.872697941612829</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.9113710797483293</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>60.30799976002056</v>
+        <v>53.77050816941751</v>
       </c>
       <c r="R5">
-        <v>542.771997840185</v>
+        <v>322.623049016505</v>
       </c>
       <c r="S5">
-        <v>0.07372183755542062</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="T5">
-        <v>0.0866933785232943</v>
+        <v>0.05071925307032974</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>142.8621113333333</v>
+        <v>203.386317</v>
       </c>
       <c r="H6">
-        <v>428.586334</v>
+        <v>610.158951</v>
       </c>
       <c r="I6">
-        <v>0.1933791023142199</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J6">
-        <v>0.2177549443006804</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1409635</v>
+        <v>0.9663516666666667</v>
       </c>
       <c r="N6">
-        <v>0.281927</v>
+        <v>2.899055</v>
       </c>
       <c r="O6">
-        <v>0.127302058387171</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.0886289202516707</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>20.13834323093633</v>
+        <v>196.542706410145</v>
       </c>
       <c r="R6">
-        <v>120.830059385618</v>
+        <v>1768.884357691305</v>
       </c>
       <c r="S6">
-        <v>0.02461755777366353</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="T6">
-        <v>0.019299385592832</v>
+        <v>0.2780845747487284</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>142.8621113333333</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H7">
-        <v>428.586334</v>
+        <v>406.497635</v>
       </c>
       <c r="I7">
-        <v>0.1933791023142199</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J7">
-        <v>0.2177549443006804</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,394 +877,22 @@
         <v>2.899055</v>
       </c>
       <c r="O7">
-        <v>0.872697941612829</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0.9113710797483293</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>138.0550393904856</v>
+        <v>130.9398890261028</v>
       </c>
       <c r="R7">
-        <v>1242.49535451437</v>
+        <v>1178.459001234925</v>
       </c>
       <c r="S7">
-        <v>0.1687615445405564</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="T7">
-        <v>0.1984555587078484</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>53.01711450000001</v>
-      </c>
-      <c r="H8">
-        <v>106.034229</v>
-      </c>
-      <c r="I8">
-        <v>0.07176431814995911</v>
-      </c>
-      <c r="J8">
-        <v>0.05387357411601602</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.5</v>
-      </c>
-      <c r="M8">
-        <v>0.1409635</v>
-      </c>
-      <c r="N8">
-        <v>0.281927</v>
-      </c>
-      <c r="O8">
-        <v>0.127302058387171</v>
-      </c>
-      <c r="P8">
-        <v>0.0886289202516707</v>
-      </c>
-      <c r="Q8">
-        <v>7.47347801982075</v>
-      </c>
-      <c r="R8">
-        <v>29.893912079283</v>
-      </c>
-      <c r="S8">
-        <v>0.009135745419241609</v>
-      </c>
-      <c r="T8">
-        <v>0.004774756704000855</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>53.01711450000001</v>
-      </c>
-      <c r="H9">
-        <v>106.034229</v>
-      </c>
-      <c r="I9">
-        <v>0.07176431814995911</v>
-      </c>
-      <c r="J9">
-        <v>0.05387357411601602</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.9663516666666667</v>
-      </c>
-      <c r="N9">
-        <v>2.899055</v>
-      </c>
-      <c r="O9">
-        <v>0.872697941612829</v>
-      </c>
-      <c r="P9">
-        <v>0.9113710797483293</v>
-      </c>
-      <c r="Q9">
-        <v>51.23317695893251</v>
-      </c>
-      <c r="R9">
-        <v>307.399061753595</v>
-      </c>
-      <c r="S9">
-        <v>0.06262857273071749</v>
-      </c>
-      <c r="T9">
-        <v>0.04909881741201517</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>143.783834</v>
-      </c>
-      <c r="H10">
-        <v>431.351502</v>
-      </c>
-      <c r="I10">
-        <v>0.1946267522348261</v>
-      </c>
-      <c r="J10">
-        <v>0.2191598631141254</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.5</v>
-      </c>
-      <c r="M10">
-        <v>0.1409635</v>
-      </c>
-      <c r="N10">
-        <v>0.281927</v>
-      </c>
-      <c r="O10">
-        <v>0.127302058387171</v>
-      </c>
-      <c r="P10">
-        <v>0.0886289202516707</v>
-      </c>
-      <c r="Q10">
-        <v>20.268272484059</v>
-      </c>
-      <c r="R10">
-        <v>121.609634904354</v>
-      </c>
-      <c r="S10">
-        <v>0.02477638617670329</v>
-      </c>
-      <c r="T10">
-        <v>0.01942390203030889</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>143.783834</v>
-      </c>
-      <c r="H11">
-        <v>431.351502</v>
-      </c>
-      <c r="I11">
-        <v>0.1946267522348261</v>
-      </c>
-      <c r="J11">
-        <v>0.2191598631141254</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.9663516666666667</v>
-      </c>
-      <c r="N11">
-        <v>2.899055</v>
-      </c>
-      <c r="O11">
-        <v>0.872697941612829</v>
-      </c>
-      <c r="P11">
-        <v>0.9113710797483293</v>
-      </c>
-      <c r="Q11">
-        <v>138.9457476256233</v>
-      </c>
-      <c r="R11">
-        <v>1250.51172863061</v>
-      </c>
-      <c r="S11">
-        <v>0.1698503660581228</v>
-      </c>
-      <c r="T11">
-        <v>0.1997359610838166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>141.6168416666667</v>
-      </c>
-      <c r="H12">
-        <v>424.850525</v>
-      </c>
-      <c r="I12">
-        <v>0.1916934970264942</v>
-      </c>
-      <c r="J12">
-        <v>0.2158568649262854</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.5</v>
-      </c>
-      <c r="M12">
-        <v>0.1409635</v>
-      </c>
-      <c r="N12">
-        <v>0.281927</v>
-      </c>
-      <c r="O12">
-        <v>0.127302058387171</v>
-      </c>
-      <c r="P12">
-        <v>0.0886289202516707</v>
-      </c>
-      <c r="Q12">
-        <v>19.96280566027917</v>
-      </c>
-      <c r="R12">
-        <v>119.776833961675</v>
-      </c>
-      <c r="S12">
-        <v>0.02440297675090775</v>
-      </c>
-      <c r="T12">
-        <v>0.01913116086732741</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>141.6168416666667</v>
-      </c>
-      <c r="H13">
-        <v>424.850525</v>
-      </c>
-      <c r="I13">
-        <v>0.1916934970264942</v>
-      </c>
-      <c r="J13">
-        <v>0.2158568649262854</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.9663516666666667</v>
-      </c>
-      <c r="N13">
-        <v>2.899055</v>
-      </c>
-      <c r="O13">
-        <v>0.872697941612829</v>
-      </c>
-      <c r="P13">
-        <v>0.9113710797483293</v>
-      </c>
-      <c r="Q13">
-        <v>136.8516709726528</v>
-      </c>
-      <c r="R13">
-        <v>1231.665038753875</v>
-      </c>
-      <c r="S13">
-        <v>0.1672905202755864</v>
-      </c>
-      <c r="T13">
-        <v>0.196725704058958</v>
+        <v>0.1852643836168829</v>
       </c>
     </row>
   </sheetData>
